--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208CF297-42DA-4FC4-B118-64CEBC220DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4D7968-9C94-4EFB-A4D6-5B02F57B7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{2CC9C527-FC56-438C-ADE5-247B22C17051}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{72C52343-086D-4B67-97BC-867CE1B797FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
   <si>
     <t>Designator</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>0603-LED-BLUE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>SMAJ5.0</t>
+  </si>
+  <si>
+    <t>DO-214AC-2 Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>400W, 6.9V, 10%, Unidirectional, TVS</t>
   </si>
   <si>
     <t>D3</t>
@@ -842,8 +857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A2A316-472C-41AA-BCD7-D6A055264C00}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F72B815-BFD7-476D-9292-E040568D547B}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,160 +1127,150 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1276,138 +1281,144 @@
         <v>80</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2" t="s">
@@ -1416,245 +1427,247 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="L23" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1662,37 +1675,67 @@
         <v>136</v>
       </c>
       <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>138</v>
+      <c r="D25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4D7968-9C94-4EFB-A4D6-5B02F57B7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A50F970-A0F0-4D0A-BEB3-9F8246384443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{72C52343-086D-4B67-97BC-867CE1B797FE}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{EA2F844A-F6B8-474F-9900-DD98F8583EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F72B815-BFD7-476D-9292-E040568D547B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598B9FC9-308D-4442-B763-003D6CDF3CA6}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{950A81BF-454F-428B-82C8-EC0276B03CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B869AA4B-969C-4870-AB4A-D0876E416CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{142251B5-A9B9-4CFE-B604-BDB8A607D56B}"/>
+    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{17D59550-F65E-4C67-A578-38F463AAAEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     <t>NXP USA</t>
   </si>
   <si>
-    <t>TJA1042</t>
+    <t>TJA1042TK/3</t>
   </si>
   <si>
     <t>VDFN-8 NXP USA</t>
@@ -381,7 +381,7 @@
     <t>https://static.chipdip.ru/lib/583/DOC001583059.pdf</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product1/8002840332</t>
+    <t>https://www.chipdip.ru/product1/8002988465</t>
   </si>
   <si>
     <t>U3</t>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6AA4E5-8AF5-44E8-94FE-6D1A0AF430C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79863B9C-FABD-47DE-8DAB-3022E6F02F61}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1B9B0A-408E-4571-ADFB-BC6C9F08A079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA00815-CDF9-4557-A4C0-91E6D8C055D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B722B389-4767-4396-8A20-71B0D77B8E60}"/>
+    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3DF5AF52-295C-4219-A331-1CD5BB498F85}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>Designator</t>
   </si>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289FA191-A954-4533-AE8D-6A2D8D0B9242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEF0377-7C09-414D-AE15-9AF2FE514BF7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -975,7 +975,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>25</v>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1076,7 +1076,9 @@
         <v>43</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
@@ -1204,7 +1206,9 @@
         <v>66</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4128047C-B3D4-4B0C-A021-8375BE492573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0242EE6-1545-4D5B-8320-E759E01B7F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="840" windowWidth="21435" windowHeight="13770" xr2:uid="{55965EC0-298F-4859-A6DC-B63FCC518392}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{411E2F86-ECC4-4043-B929-902B9FDBC9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>Designator</t>
   </si>
@@ -186,6 +186,9 @@
     <t>Connector Header Surface Mount, Right Angle 6 position 0.039 _1.00mm_</t>
   </si>
   <si>
+    <t>https://www.farnell.com/datasheets/2082363.pdf</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -216,6 +219,12 @@
     <t>https://static.chipdip.ru/lib/039/DOC013039662.pdf</t>
   </si>
   <si>
+    <t>PX4-DEBUG</t>
+  </si>
+  <si>
+    <t>SM10B-SRSS-TB</t>
+  </si>
+  <si>
     <t>R1, R2, R3, R10, R11, R12</t>
   </si>
   <si>
@@ -261,7 +270,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>R6, R7, R9, R13, R15, R24</t>
+    <t>R6, R7, R9, R13, R15, R17, R24</t>
   </si>
   <si>
     <t>RC0402FR-0710KL</t>
@@ -273,7 +282,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R14</t>
+    <t>R14, R16</t>
   </si>
   <si>
     <t>RC0402FR-074K7L</t>
@@ -319,6 +328,21 @@
   </si>
   <si>
     <t>1k</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>KINGTEK INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>DSHP02TSGER</t>
+  </si>
+  <si>
+    <t>DSHP Series 1.27mm Pitch DIP Switch 4 POS</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3856577.html</t>
   </si>
   <si>
     <t>SWD1, SWD2</t>
@@ -803,8 +827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E63DEFD-239B-417E-B307-3670BAA12B31}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A88DF1-3BAF-42EA-B7BA-959B89AB519C}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,35 +1088,37 @@
         <v>17</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>25</v>
@@ -1100,7 +1126,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1109,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -1127,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>18</v>
@@ -1135,69 +1161,61 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>18</v>
@@ -1205,122 +1223,126 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -1329,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
@@ -1337,280 +1359,342 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="1">
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0242EE6-1545-4D5B-8320-E759E01B7F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE70765-F898-4594-9F6F-B213E3ABFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{411E2F86-ECC4-4043-B929-902B9FDBC9CF}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{20DFB516-F2F3-4B47-81AA-ACF1EF58501B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
   <si>
     <t>Designator</t>
   </si>
@@ -225,6 +225,33 @@
     <t>SM10B-SRSS-TB</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>IRF5852</t>
+  </si>
+  <si>
+    <t>Mosfet Array 2 N-Channel _Dual_ 20V 2.7A 960mW Surface Mount 6-TSOP</t>
+  </si>
+  <si>
+    <t>TSOP-6 International Rectifier</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/300/DOC000300076.pdf</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>IRF5850</t>
+  </si>
+  <si>
+    <t>Mosfet Array 2 P-Channel (Dual) 20V 2.2A 960mW Surface Mount 6-TSOP</t>
+  </si>
+  <si>
     <t>R1, R2, R3, R10, R11, R12</t>
   </si>
   <si>
@@ -270,7 +297,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>R6, R7, R9, R13, R15, R17, R24</t>
+    <t>R6, R7, R9, R13, R15, R17, R18, R19, R24</t>
   </si>
   <si>
     <t>RC0402FR-0710KL</t>
@@ -827,8 +854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A88DF1-3BAF-42EA-B7BA-959B89AB519C}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9250EE5C-1A80-478A-8F44-C77F69EF6399}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>63</v>
@@ -1202,121 +1229,107 @@
       <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>18</v>
@@ -1324,60 +1337,56 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -1386,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -1394,75 +1403,83 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>99</v>
@@ -1470,14 +1487,18 @@
       <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -1486,215 +1507,273 @@
         <v>102</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="1">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE70765-F898-4594-9F6F-B213E3ABFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3130F4C3-4F33-46C6-A2D1-9D88D38FED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{20DFB516-F2F3-4B47-81AA-ACF1EF58501B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{EE696755-8011-4809-8805-2FAC764EB7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9250EE5C-1A80-478A-8F44-C77F69EF6399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57552683-4044-4CF9-BC33-9418E9F6200D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD2148A-E886-430A-B26B-C342196B11CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3130F4C3-4F33-46C6-A2D1-9D88D38FED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{C2F74970-3E56-4A90-8154-0671A633C1F9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{EE696755-8011-4809-8805-2FAC764EB7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
   <si>
     <t>Designator</t>
   </si>
@@ -72,367 +72,397 @@
     <t>System</t>
   </si>
   <si>
+    <t>C1, C2, C3, C4, C5, C6, C7, C9, C10, C11, C12, C13, C14, C15</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GCM155R71H104KE02D</t>
+  </si>
+  <si>
+    <t>GCM155R71H104KE02D, Чип 0402 X7R 0.1uF +10% 50V,Конденсатор</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CAN1, CAN2, TARGET SWD</t>
+  </si>
+  <si>
+    <t>JST Sales</t>
+  </si>
+  <si>
+    <t>SM04B-GHS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2082975.pdf</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>CAN3</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>502585-0670</t>
+  </si>
+  <si>
+    <t>1.50mm Pitch, CLIK-Mate PCB Receptacle, Single Row, Surface Mount, Right-Angle, Tin Plating, Positive Lock, 6 Circuits, Natural</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>SMAJ5.0</t>
+  </si>
+  <si>
+    <t>400W, 6.9V, 10%, Unidirectional, TVS</t>
+  </si>
+  <si>
+    <t>DO-214AC-2 Taiwan Semiconductor</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SS16</t>
+  </si>
+  <si>
+    <t>Diode Schottky 60V 1A Surface Mount SMA</t>
+  </si>
+  <si>
+    <t>SMA-2</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>STM32F103T8U6</t>
+  </si>
+  <si>
+    <t>STM32F103T8U6, Микроконтроллер 32BIT ARM 64K FLASH [VFQFPN-36]</t>
+  </si>
+  <si>
+    <t>VFQFPN-36</t>
+  </si>
+  <si>
+    <t>http://www.st.com/stonline/products/literature/ds/13587.pdf</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>SM06B-SRSS-TB_LF__SN_</t>
+  </si>
+  <si>
+    <t>Connector Header Surface Mount, Right Angle 6 position 0.039 _1.00mm_</t>
+  </si>
+  <si>
+    <t>https://www.farnell.com/datasheets/2082363.pdf</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>UJ31-CH-31N-SMT-TR</t>
+  </si>
+  <si>
+    <t>Type C, USB 3.1 Gen 2, 5 A, Right Angle, Surface Mount _SMT_, USB Receptacle</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product1/8002862225</t>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>LTST-C19HE1WT</t>
+  </si>
+  <si>
+    <t>Blue/Green/Red</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/039/DOC013039662.pdf</t>
+  </si>
+  <si>
+    <t>PX4-DEBUG</t>
+  </si>
+  <si>
+    <t>SM10B-SRSS-TB</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>IRF5852</t>
+  </si>
+  <si>
+    <t>Mosfet Array 2 N-Channel _Dual_ 20V 2.7A 960mW Surface Mount 6-TSOP</t>
+  </si>
+  <si>
+    <t>TSOP-6 International Rectifier</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/300/DOC000300076.pdf</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>IRF5850</t>
+  </si>
+  <si>
+    <t>Mosfet Array 2 P-Channel (Dual) 20V 2.2A 960mW Surface Mount 6-TSOP</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R10, R11, R12</t>
+  </si>
+  <si>
+    <t>Yageo or NXP</t>
+  </si>
+  <si>
+    <t>RC0402FR-07330RL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 330 Ом, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>RC0402</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000189640</t>
+  </si>
+  <si>
+    <t>R4, R8</t>
+  </si>
+  <si>
+    <t>RC0402FR-075K1L</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 5.1 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>RC0402FR-07120RL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 120 Ом, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>R6, R7, R9, R13, R15, R17, R18, R19, R24</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 10 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R14, R16</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K7L</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 4.7 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>R27, R28</t>
+  </si>
+  <si>
+    <t>RC0402FR-0722RL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 22 Ом, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>RC0402FR-071K6L</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 1.6 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>1.6k</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 1 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>KINGTEK INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>DSHP02TSGER</t>
+  </si>
+  <si>
+    <t>DSHP Series 1.27mm Pitch DIP Switch 4 POS</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3856577.html</t>
+  </si>
+  <si>
+    <t>SWD1, SWD2</t>
+  </si>
+  <si>
+    <t>Conn Shrouded Header HDR 4 POS 1.25mm Solder ST SMD Reel</t>
+  </si>
+  <si>
+    <t>TVS1</t>
+  </si>
+  <si>
+    <t>USBLC6-2P6</t>
+  </si>
+  <si>
+    <t>17V Clamp 5A (8/20µs) Ipp Tvs Diode Surface Mount SOT-666</t>
+  </si>
+  <si>
+    <t>SOT-666</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/093/DOC001093117.pdf</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>NXP USA</t>
+  </si>
+  <si>
+    <t>TJA1042TK/3</t>
+  </si>
+  <si>
+    <t>1/1 Transceiver Half CANbus 8-SO</t>
+  </si>
+  <si>
+    <t>VDFN-8 NXP USA</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/583/DOC001583059.pdf</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>MaxLinear, Inc.</t>
+  </si>
+  <si>
+    <t>SPX3819M5-L-3-3/TR</t>
+  </si>
+  <si>
+    <t>Low Dropout Voltage Regulator, Adjustable 0.5A, В±1%, 2.5 to 16 Vin, 5-Pin SOT-23</t>
+  </si>
+  <si>
     <t>3V3</t>
   </si>
   <si>
-    <t>LTST-C194KRKT</t>
-  </si>
-  <si>
-    <t>Red 620nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>RED</t>
+    <t>SOT-23-5 Exar</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2614478.pdf</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>STM32F103CBT6</t>
+  </si>
+  <si>
+    <t>ARM® Cortex®-M3 STM32F1 Microcontroller IC 32-Bit 72MHz 128KB (128K x 8) FLASH</t>
+  </si>
+  <si>
+    <t>LQFP-48</t>
+  </si>
+  <si>
+    <t>STM32F103CBT6 - should be B letter not 8</t>
+  </si>
+  <si>
+    <t>https://static.chipdip.ru/lib/235/DOC000235733.pdf</t>
+  </si>
+  <si>
+    <t>VUSB</t>
+  </si>
+  <si>
+    <t>LTST-C194KFKT</t>
+  </si>
+  <si>
+    <t>Orange 605nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
   </si>
   <si>
     <t>0603 Lite-On</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C4, C5, C6, C9, C10, C11, C12, C13, C14, C15</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02D</t>
-  </si>
-  <si>
-    <t>GCM155R71H104KE02D, Чип 0402 X7R 0.1uF +10% 50V,Конденсатор</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CAN1, CAN2, TARGET SWD</t>
-  </si>
-  <si>
-    <t>JST Sales</t>
-  </si>
-  <si>
-    <t>SM04B-GHS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2082975.pdf</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>CAN3</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>502585-0670</t>
-  </si>
-  <si>
-    <t>1.50mm Pitch, CLIK-Mate PCB Receptacle, Single Row, Surface Mount, Right-Angle, Tin Plating, Positive Lock, 6 Circuits, Natural</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Taiwan Semiconductor</t>
-  </si>
-  <si>
-    <t>SMAJ5.0</t>
-  </si>
-  <si>
-    <t>400W, 6.9V, 10%, Unidirectional, TVS</t>
-  </si>
-  <si>
-    <t>DO-214AC-2 Taiwan Semiconductor</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>SS16</t>
-  </si>
-  <si>
-    <t>Diode Schottky 60V 1A Surface Mount SMA</t>
-  </si>
-  <si>
-    <t>SMA-2</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>DD1</t>
-  </si>
-  <si>
-    <t>STM</t>
-  </si>
-  <si>
-    <t>STM32F103T8U6</t>
-  </si>
-  <si>
-    <t>STM32F103T8U6, Микроконтроллер 32BIT ARM 64K FLASH [VFQFPN-36]</t>
-  </si>
-  <si>
-    <t>VFQFPN-36</t>
-  </si>
-  <si>
-    <t>http://www.st.com/stonline/products/literature/ds/13587.pdf</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>CUI Devices</t>
-  </si>
-  <si>
-    <t>UJ31-CH-31N-SMT-TR</t>
-  </si>
-  <si>
-    <t>Type C, USB 3.1 Gen 2, 5 A, Right Angle, Surface Mount _SMT_, USB Receptacle</t>
-  </si>
-  <si>
-    <t>SMT</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product1/8002862225</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>SM06B-SRSS-TB_LF__SN_</t>
-  </si>
-  <si>
-    <t>Connector Header Surface Mount, Right Angle 6 position 0.039 _1.00mm_</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LTST-C19HE1WT</t>
-  </si>
-  <si>
-    <t>Blue/Green/Red</t>
-  </si>
-  <si>
-    <t>https://static.chipdip.ru/lib/039/DOC013039662.pdf</t>
-  </si>
-  <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
-    <t>Yageo or NXP</t>
-  </si>
-  <si>
-    <t>RC0402FR-07330RL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 330 Ом, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>RC0402</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product0/9000189640</t>
-  </si>
-  <si>
-    <t>R4, R8</t>
-  </si>
-  <si>
-    <t>RC0402FR-075K1L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 5.1 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>RC0603FR-07120RL</t>
-  </si>
-  <si>
-    <t>120 Ohms 1 0.1 W 1 10 W Chip Resistor 0603 1608 Metric Thick Film</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product0/9000079618</t>
-  </si>
-  <si>
-    <t>R6, R7, R21, R22, R23, R24, R25, R26</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710KL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 10 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R11, R30</t>
-  </si>
-  <si>
-    <t>RC0402FR-071KL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 1 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R16, R17, R19, R20, R27, R28</t>
-  </si>
-  <si>
-    <t>RC0402FR-0722RL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 22 Ом, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>RC0402FR-07120RL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 120 Ом, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>RC0402FR-071K6L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 1.6 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>1.6k</t>
-  </si>
-  <si>
-    <t>SWD1, SWD2</t>
-  </si>
-  <si>
-    <t>Conn Shrouded Header HDR 4 POS 1.25mm Solder ST SMD Reel</t>
-  </si>
-  <si>
-    <t>TARGET SWD1</t>
-  </si>
-  <si>
-    <t>PLS-6</t>
-  </si>
-  <si>
-    <t>PLS-6 (DS1021-1x6), Вилка штыревая 2.54мм 1x6 прямая тип1</t>
-  </si>
-  <si>
-    <t>TVS1</t>
-  </si>
-  <si>
-    <t>USBLC6-2P6</t>
-  </si>
-  <si>
-    <t>17V Clamp 5A (8/20µs) Ipp Tvs Diode Surface Mount SOT-666</t>
-  </si>
-  <si>
-    <t>SOT-666</t>
-  </si>
-  <si>
-    <t>https://static.chipdip.ru/lib/093/DOC001093117.pdf</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>NXP USA</t>
-  </si>
-  <si>
-    <t>TJA1042TK/3</t>
-  </si>
-  <si>
-    <t>1/1 Transceiver Half CANbus 8-SO</t>
-  </si>
-  <si>
-    <t>VDFN-8 NXP USA</t>
-  </si>
-  <si>
-    <t>https://static.chipdip.ru/lib/583/DOC001583059.pdf</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MaxLinear, Inc.</t>
-  </si>
-  <si>
-    <t>SPX3819M5-L-3-3/TR</t>
-  </si>
-  <si>
-    <t>Low Dropout Voltage Regulator, Adjustable 0.5A, В±1%, 2.5 to 16 Vin, 5-Pin SOT-23</t>
-  </si>
-  <si>
-    <t>SOT-23-5 Exar</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2614478.pdf</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>STM32F103CBT6</t>
-  </si>
-  <si>
-    <t>ARM® Cortex®-M3 STM32F1 Microcontroller IC 32-Bit 72MHz 128KB (128K x 8) FLASH</t>
-  </si>
-  <si>
-    <t>LQFP-48</t>
-  </si>
-  <si>
-    <t>STM32F103CBT6 - should be B letter not 8</t>
-  </si>
-  <si>
-    <t>https://static.chipdip.ru/lib/235/DOC000235733.pdf</t>
-  </si>
-  <si>
-    <t>VUSB</t>
-  </si>
-  <si>
-    <t>LTST-C194KFKT</t>
-  </si>
-  <si>
-    <t>Orange 605nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
   </si>
   <si>
     <t>Y1, Y2</t>
@@ -824,8 +854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BD4F7-3A7E-481A-8F2A-941ABE844BFC}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57552683-4044-4CF9-BC33-9418E9F6200D}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -884,126 +914,126 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1012,23 +1042,23 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1039,35 +1069,37 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1077,74 +1109,82 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1153,326 +1193,314 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1481,210 +1509,276 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>23</v>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>